--- a/data-raw/baker.strawberry.uniformity.xlsx
+++ b/data-raw/baker.strawberry.uniformity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F580D4-3CBD-4E9B-B63F-079254CEE896}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DB3364-460C-426D-BA51-F9F67FB142FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="0" windowWidth="13188" windowHeight="4188" xr2:uid="{1BC70190-42B6-40A7-9732-F98043FF168B}"/>
+    <workbookView xWindow="3200" yWindow="2160" windowWidth="7590" windowHeight="8130" xr2:uid="{1BC70190-42B6-40A7-9732-F98043FF168B}"/>
   </bookViews>
   <sheets>
     <sheet name="T1" sheetId="2" r:id="rId1"/>
@@ -81,9 +81,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -121,7 +121,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -227,7 +227,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -369,7 +369,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -383,9 +383,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>176</v>
       </c>
@@ -399,7 +399,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>235</v>
       </c>
@@ -413,7 +413,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>217</v>
       </c>
@@ -427,7 +427,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>234</v>
       </c>
@@ -441,7 +441,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>239</v>
       </c>
@@ -455,7 +455,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>216</v>
       </c>
@@ -469,7 +469,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>318</v>
       </c>
@@ -483,7 +483,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>190</v>
       </c>
@@ -497,7 +497,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>181</v>
       </c>
@@ -511,7 +511,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>225</v>
       </c>
@@ -525,7 +525,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>266</v>
       </c>
@@ -539,7 +539,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>297</v>
       </c>
@@ -553,7 +553,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>226</v>
       </c>
@@ -567,7 +567,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>283</v>
       </c>
@@ -581,7 +581,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>219</v>
       </c>
@@ -595,7 +595,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>267</v>
       </c>
@@ -609,7 +609,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>265</v>
       </c>
@@ -623,7 +623,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>216</v>
       </c>
@@ -637,7 +637,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>130</v>
       </c>
@@ -651,7 +651,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>148</v>
       </c>
@@ -665,7 +665,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>174</v>
       </c>
@@ -679,7 +679,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>246</v>
       </c>
@@ -693,7 +693,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>198</v>
       </c>
@@ -707,7 +707,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>194</v>
       </c>
@@ -721,7 +721,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>260</v>
       </c>
@@ -735,7 +735,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>245</v>
       </c>
@@ -749,7 +749,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>207</v>
       </c>
@@ -763,7 +763,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>203</v>
       </c>
@@ -777,7 +777,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>260</v>
       </c>
@@ -791,7 +791,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>204</v>
       </c>
@@ -805,7 +805,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>136</v>
       </c>
@@ -819,7 +819,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>243</v>
       </c>
@@ -833,7 +833,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>325</v>
       </c>
@@ -847,7 +847,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>106</v>
       </c>
@@ -861,7 +861,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>222</v>
       </c>
@@ -875,7 +875,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>228</v>
       </c>
@@ -889,7 +889,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>124</v>
       </c>
@@ -903,7 +903,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>288</v>
       </c>
@@ -917,7 +917,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>240</v>
       </c>
@@ -931,7 +931,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>181</v>
       </c>
@@ -945,7 +945,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>231</v>
       </c>
@@ -959,7 +959,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>193</v>
       </c>
@@ -973,7 +973,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>144</v>
       </c>
@@ -987,7 +987,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>208</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>191</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>166</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>216</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>282</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>232</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>284</v>
       </c>
@@ -1098,9 +1098,9 @@
       <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>129</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>72</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>124</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>95</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>100</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>63</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>76</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>153</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>88</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>58</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>72</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>178</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>194</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>193</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>205</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>212</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>206</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>171</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>119</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>155</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>155</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>251</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>275</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>278</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>324</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>190</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>134</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>189</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>141</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>180</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>175</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>238</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>272</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>206</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>78</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>58</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>146</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>171</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>321</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>275</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>108</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>53</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>128</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>88</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>206</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>104</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>112</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>52</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>68</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>82</v>
       </c>
